--- a/Doubling_time_Modularized/input_template2.xlsx
+++ b/Doubling_time_Modularized/input_template2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wenwen/Software/github-repository/calulate_bacteria_doubling_time/Doubling_time_Modularized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39C807C-0FFD-0140-9CA1-277CA1098FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE128BA3-2589-2C4D-A711-4D9B81BCDC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="960" windowWidth="24280" windowHeight="14500" xr2:uid="{CD24940A-B531-6442-B822-BBB8F4050E68}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,21 +33,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>min</t>
   </si>
   <si>
-    <t>WT2</t>
-  </si>
-  <si>
     <t>hour</t>
   </si>
   <si>
-    <t>WT1</t>
-  </si>
-  <si>
-    <t>S81L</t>
+    <t>WT-1</t>
+  </si>
+  <si>
+    <t>WT-2</t>
+  </si>
+  <si>
+    <t>WT-3</t>
+  </si>
+  <si>
+    <t>adeL Δ6bp-1</t>
+  </si>
+  <si>
+    <t>adeL Δ6bp-2</t>
+  </si>
+  <si>
+    <t>adeL Δ6bp-3</t>
+  </si>
+  <si>
+    <t>Cy1 P15 (*gyrB *AdeL)-1</t>
+  </si>
+  <si>
+    <t>Cy1 P15 (*gyrB *AdeL)-2</t>
+  </si>
+  <si>
+    <t>Cy1 P15 (*gyrB *AdeL)-3</t>
+  </si>
+  <si>
+    <t>Cy2 P15 (*gyrA)-1</t>
+  </si>
+  <si>
+    <t>Cy2 P15 (*gyrA)-2</t>
+  </si>
+  <si>
+    <t>Cy2 P15 (*gyrA)-3</t>
   </si>
 </sst>
 </file>
@@ -63,6 +92,7 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,11 +115,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,41 +439,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549FDA1-5E73-D74F-A68C-1EB7F96E8100}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1048576"/>
+      <selection activeCell="C2" sqref="C2:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>60*B2</f>
         <v>0</v>
@@ -447,53 +502,95 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>3.9999999999999897E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.9999999999999906E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A12" si="0">60*B3</f>
+        <f t="shared" ref="A3:A10" si="0">60*B3</f>
         <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="C3" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -501,222 +598,333 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="C4" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.124</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.085</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.355</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.78</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3.76</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.26</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.33</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.59</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4.09</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="N9" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>60*B10</f>
-        <v>360</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.6900000000000004</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.1300000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>3.15</v>
-      </c>
-      <c r="D11">
-        <v>1.34</v>
-      </c>
-      <c r="E11">
-        <v>1.3900000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="B12">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>3.61</v>
-      </c>
-      <c r="D12">
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="E12">
-        <v>1.33</v>
-      </c>
+      <c r="C10" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4.32</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
